--- a/data/trans_camb/IP19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,52</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,95</t>
+          <t>0,0; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,91</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,99</t>
+          <t>0,37; 4,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,43</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,73</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,49</t>
+          <t>0,35; 2,56</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-41,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-37,61%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -984,17 +984,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>194,47%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>202,16%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>-0,83; 1,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 0,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>-1,08; 0,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,2; 2,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,29</t>
+          <t>0,49; 2,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>-0,1; 1,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>-0,45; 0,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,56</t>
+          <t>-0,14; 1,49</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>194,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>202,16%</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_camb/IP19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,4</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -858,37 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>0,0; 5,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 5,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,29</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,56</t>
+          <t>0,28; 3,75</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,91</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,99</t>
+          <t>0,54; 5,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,43</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,49</t>
+          <t>0,24; 2,29</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-37,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1190,27 +1190,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>194,47%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>202,16%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,37 +1280,37 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,35</t>
+          <t>-1,1; 2,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,38</t>
+          <t>-1,49; 1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,89</t>
+          <t>-1,5; 1,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,0</t>
+          <t>0,29; 3,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,62</t>
+          <t>0,35; 2,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,21</t>
+          <t>-0,16; 2,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,59</t>
+          <t>-0,62; 1,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,32</t>
+          <t>-0,38; 1,44</t>
         </is>
       </c>
     </row>
@@ -1386,17 +1386,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>80,15%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-43,6%</t>
+          <t>-26,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>-34,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>342,58%</t>
+          <t>228,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>420,66%</t>
+          <t>113,5%</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-61,01; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,18 +1479,242 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,14; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 1,2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 0,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 0,87</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,11</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,2</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 2,77</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 1,17</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 0,6</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 1,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>80,15%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-43,6%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>342,58%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>67,02%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>420,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-39,8; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0,61; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,1</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,72</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 5,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,75</t>
+          <t>0,28; 3,73</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,62</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,05</t>
+          <t>0,55; 5,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,29</t>
+          <t>0,24; 2,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,71</t>
+          <t>-1,05; 2,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,56</t>
+          <t>-1,51; 1,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,07</t>
+          <t>-1,7; 1,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,8</t>
+          <t>0,29; 4,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,91</t>
+          <t>0,35; 3,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,37</t>
+          <t>-0,16; 2,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,02</t>
+          <t>-0,57; 1,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,44</t>
+          <t>-0,38; 1,46</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,2</t>
+          <t>-0,49; 1,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,38</t>
+          <t>-0,91; 0,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,87</t>
+          <t>-0,63; 1,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,11</t>
+          <t>0,32; 2,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,77</t>
+          <t>0,74; 2,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,17</t>
+          <t>0,09; 1,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,6</t>
+          <t>-0,25; 0,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,32</t>
+          <t>0,24; 1,42</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,8; —</t>
+          <t>-35,97; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,61; —</t>
+          <t>6,49; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,05</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,49</t>
+          <t>0,0; 7,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,73</t>
+          <t>0,28; 5,0</t>
         </is>
       </c>
     </row>
@@ -959,22 +959,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1064,34 +1064,34 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,27</t>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 5,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,31</t>
+          <t>0,27; 2,25</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,35</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,18</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,64</t>
+          <t>0,29; 3,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,32</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,12</t>
+          <t>0,36; 2,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,18</t>
+          <t>-1,01; 2,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>-1,42; 1,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,22</t>
+          <t>-1,4; 1,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,27</t>
+          <t>-0,2; 2,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,17</t>
+          <t>-0,57; 1,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,46</t>
+          <t>-0,36; 1,63</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>49,42%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-26,31%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-34,32%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-20,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>113,5%</t>
+          <t>128,28%</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,15</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,25</t>
+          <t>0,32; 2,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,38</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,0</t>
+          <t>0,73; 2,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,04</t>
+          <t>-0,44; 1,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>-0,82; 0,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,84</t>
+          <t>-0,45; 1,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,34</t>
+          <t>0,11; 1,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,52</t>
+          <t>-0,24; 0,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,42</t>
+          <t>0,21; 1,42</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>80,15%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-43,6%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>20,86%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>420,66%</t>
+          <t>442,67%</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-35,97; —</t>
+          <t>-61,01; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,49; —</t>
+          <t>-8,7; —</t>
         </is>
       </c>
     </row>
